--- a/Данные_на_проверку_2.xlsx
+++ b/Данные_на_проверку_2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="78">
   <si>
     <t>№ п/п</t>
   </si>
@@ -228,13 +228,43 @@
   </si>
   <si>
     <t>13.</t>
+  </si>
+  <si>
+    <t>Организация</t>
+  </si>
+  <si>
+    <t>ИП</t>
+  </si>
+  <si>
+    <t>Александ</t>
+  </si>
+  <si>
+    <t>Виктор</t>
+  </si>
+  <si>
+    <t>Алович</t>
+  </si>
+  <si>
+    <t>Ававов</t>
+  </si>
+  <si>
+    <t>Ававич</t>
+  </si>
+  <si>
+    <t>25.</t>
+  </si>
+  <si>
+    <t>Дна</t>
+  </si>
+  <si>
+    <t>Авв</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +302,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -281,7 +319,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -304,11 +342,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -334,6 +385,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -614,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +703,7 @@
     <col min="8" max="8" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -654,11 +725,14 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>66</v>
       </c>
@@ -680,11 +754,14 @@
       <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
@@ -704,11 +781,14 @@
       <c r="G3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -730,11 +810,14 @@
       <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -756,11 +839,14 @@
       <c r="G5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -780,11 +866,14 @@
       <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -806,11 +895,14 @@
       <c r="G7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -832,9 +924,12 @@
       <c r="G8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>24</v>
       </c>
@@ -854,11 +949,14 @@
       <c r="G9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
@@ -880,11 +978,14 @@
       <c r="G10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>30</v>
       </c>
@@ -904,11 +1005,14 @@
         <v>11</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
@@ -928,11 +1032,14 @@
       <c r="G12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
@@ -954,11 +1061,14 @@
       <c r="G13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>67</v>
       </c>
@@ -980,11 +1090,14 @@
       <c r="G14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>33</v>
       </c>
@@ -1006,107 +1119,246 @@
       <c r="G15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3634</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3634</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3999</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4">
+        <v>36819</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="4">
+        <v>37148</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="4">
+        <v>37549</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="4">
+        <v>36506</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="4">
+        <v>43101</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>59</v>
       </c>
@@ -1117,21 +1369,24 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1140,7 +1395,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1150,7 +1405,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1160,7 +1415,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1170,7 +1425,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1180,7 +1435,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1190,7 +1445,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>

--- a/Данные_на_проверку_2.xlsx
+++ b/Данные_на_проверку_2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="79">
   <si>
     <t>№ п/п</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Авв</t>
+  </si>
+  <si>
+    <t>20.10.1234</t>
   </si>
 </sst>
 </file>
@@ -688,7 +691,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1081,8 +1084,8 @@
       <c r="D14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="4">
-        <v>36819</v>
+      <c r="E14" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>9</v>

--- a/Данные_на_проверку_2.xlsx
+++ b/Данные_на_проверку_2.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -233,9 +233,6 @@
     <t>Организация</t>
   </si>
   <si>
-    <t>ИП</t>
-  </si>
-  <si>
     <t>Александ</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>20.10.1234</t>
+  </si>
+  <si>
+    <t>ГПХ</t>
   </si>
 </sst>
 </file>
@@ -362,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -390,9 +390,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -690,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>8</v>
@@ -785,7 +782,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>8</v>
@@ -814,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>8</v>
@@ -843,7 +840,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>8</v>
@@ -870,7 +867,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>8</v>
@@ -899,7 +896,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>8</v>
@@ -928,7 +925,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -953,7 +950,7 @@
         <v>12</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>8</v>
@@ -982,7 +979,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>8</v>
@@ -1009,7 +1006,7 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>8</v>
@@ -1036,7 +1033,7 @@
         <v>10</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>8</v>
@@ -1065,7 +1062,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>8</v>
@@ -1085,7 +1082,7 @@
         <v>15</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>9</v>
@@ -1093,8 +1090,8 @@
       <c r="G14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>69</v>
+      <c r="H14" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>8</v>
@@ -1122,8 +1119,8 @@
       <c r="G15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>69</v>
+      <c r="H15" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>8</v>
@@ -1134,7 +1131,7 @@
         <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>22</v>
@@ -1151,8 +1148,8 @@
       <c r="G16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>69</v>
+      <c r="H16" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>8</v>
@@ -1163,7 +1160,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>22</v>
@@ -1180,8 +1177,8 @@
       <c r="G17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>69</v>
+      <c r="H17" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>8</v>
@@ -1192,10 +1189,10 @@
         <v>42</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>23</v>
@@ -1209,8 +1206,8 @@
       <c r="G18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>69</v>
+      <c r="H18" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>8</v>
@@ -1239,7 +1236,7 @@
         <v>10</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>8</v>
@@ -1256,7 +1253,7 @@
         <v>52</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="4">
         <v>37148</v>
@@ -1268,7 +1265,7 @@
         <v>10</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>8</v>
@@ -1297,7 +1294,7 @@
         <v>10</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>8</v>
@@ -1311,7 +1308,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>29</v>
@@ -1326,7 +1323,7 @@
         <v>10</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>8</v>
@@ -1337,13 +1334,13 @@
         <v>56</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>74</v>
       </c>
       <c r="E23" s="4">
         <v>43101</v>
@@ -1355,13 +1352,13 @@
         <v>10</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>59</v>
       </c>
@@ -1371,24 +1368,24 @@
       <c r="E24" s="4"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
